--- a/sputnik/personal/cel/cel53.xlsx
+++ b/sputnik/personal/cel/cel53.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -211,9 +211,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -521,10 +519,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="A10" sqref="A10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -636,10 +634,27 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="16">
+        <v>43952</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1000</v>
+      </c>
       <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>44035</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel53.xlsx
+++ b/sputnik/personal/cel/cel53.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -212,6 +218,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,10 +526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D11"/>
+      <selection activeCell="A12" sqref="A12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -655,6 +662,72 @@
       <c r="D11" s="1">
         <v>1000</v>
       </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1619</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel53.xlsx
+++ b/sputnik/personal/cel/cel53.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2020</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>излишне оплачены</t>
   </si>
 </sst>
 </file>
@@ -86,7 +98,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,6 +237,10 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,10 +548,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C13"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,7 +669,7 @@
       <c r="B10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>1000</v>
       </c>
       <c r="D10" s="13"/>
@@ -659,7 +681,8 @@
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19">
         <v>1000</v>
       </c>
     </row>
@@ -670,10 +693,10 @@
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <v>1000</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
@@ -682,34 +705,58 @@
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>1619</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="18">
+        <v>44370</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="18">
+        <v>44370</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
+        <v>170</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="18">
+        <v>44370</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13">
+        <v>1449</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="20">
+        <v>44370</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22">
+        <v>431</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -728,6 +775,9 @@
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel53.xlsx
+++ b/sputnik/personal/cel/cel53.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на приобретение мини трактора</t>
-  </si>
-  <si>
-    <t>излишне оплачены</t>
   </si>
 </sst>
 </file>
@@ -98,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,12 +105,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,9 +229,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,7 +542,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -706,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>1619</v>
+        <v>170</v>
       </c>
       <c r="D13" s="13"/>
     </row>
@@ -747,28 +738,22 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
-        <v>44370</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="22">
-        <v>431</v>
-      </c>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
